--- a/biology/Botanique/Liste_des_principales_forêts_de_France/Liste_des_principales_forêts_de_France.xlsx
+++ b/biology/Botanique/Liste_des_principales_forêts_de_France/Liste_des_principales_forêts_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
+          <t>Liste_des_principales_forêts_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des principales forêts de France présente les massifs forestiers en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
+          <t>Liste_des_principales_forêts_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En France métropolitaine, la surface couverte d'arbres s'étend sur un total 16,9 millions d’hectares (170 000 km2) (selon Agreste, 2004), mais l’Inventaire forestier national (IFN) comptait, en 2006, 13,8 millions d’hectares de « forêts de production et petits massifs », dont 8,7 millions d’ha pour les feuillus et 5,1 pour les résineux. Les forêts d'outre-mer sont situées principalement en Guyane (Amérique du Sud), qui est couverte par 7,5 millions d’hectares de forêt.
-3,7 millions d’hectares bénéficient du régime forestier. 10,1 millions d’hectares sont propriétés privées. Deux tiers de la surface privée sont des propriétés de plus de 10 (0,1 km2) ha, les propriétés de plus de 25 (0,25 km2) ha comptant pour 48 %. Le bocage et les arbres isolés reculent, mais le boisement de rente sur les zones de recul agricole augmente[1].
+3,7 millions d’hectares bénéficient du régime forestier. 10,1 millions d’hectares sont propriétés privées. Deux tiers de la surface privée sont des propriétés de plus de 10 (0,1 km2) ha, les propriétés de plus de 25 (0,25 km2) ha comptant pour 48 %. Le bocage et les arbres isolés reculent, mais le boisement de rente sur les zones de recul agricole augmente.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
+          <t>Liste_des_principales_forêts_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Outremer
-Forêt amazonienne (Guyane) : 74 500 km2
-Forêt du littoral (Guadeloupe) : 650 km2, dont 390 km2 domaniaux
-Métropole
-Superficie supérieure à 200 km2
-Forêt des Landes (Landes, Gironde et Lot-et-Garonne) : 12 650 km2.
+          <t>Outremer</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forêt amazonienne (Guyane) : 74 500 km2
+Forêt du littoral (Guadeloupe) : 650 km2, dont 390 km2 domaniaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des principales forêts françaises au niveau national</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Métropole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Superficie supérieure à 200 km2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forêt des Landes (Landes, Gironde et Lot-et-Garonne) : 12 650 km2.
 Forêt du Vercors (Isère) : 1 250 km2
 Forêt d'Orléans (Loiret) : 500 km2
 Forêt de la Double (Dordogne) : 500 km2
@@ -558,10 +614,48 @@
 Forêt de la Grande Chartreuse (Isère et Savoie) : 425 km2, dont 82 km2 domaniaux
 Forêt de Fontainebleau (Seine-et-Marne) : 250 km2
 Forêt de Haguenau (Bas-Rhin) : 210 km2
-Forêt de Chaux (Jura) : 205 km2
-Superficie de 100 à 200 km2
-Forêt d'Iraty (Pyrénées-Atlantiques) : 173 km2.
-Forêt d'Arc-en-Barrois (Haute-Marne) : 152 km2[2]
+Forêt de Chaux (Jura) : 205 km2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des principales forêts françaises au niveau national</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Métropole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Superficie de 100 à 200 km2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Forêt d'Iraty (Pyrénées-Atlantiques) : 173 km2.
+Forêt d'Arc-en-Barrois (Haute-Marne) : 152 km2
 Forêt de Darney (Vosges et Haute-Saône) : 150 km2
 Forêt du Mont-Aigoual (Lozère et Gard) : 150 km²
 Forêt de Compiègne (Oise) : 143 km2
@@ -570,15 +664,53 @@
 Forêt de Haye (Meurthe-et-Moselle) : 110 km2
 Forêt de Mercoire (Lozère) : 110 km².
 Forêt d'Horte (Charente) : 100 km2, en partie domaniale.
-Forêt du Haut-Vallespir (Pyrénées-Orientales) : 100 km2
-Superficie de 40 à 100 km2
-Forêt de Mormal (Nord) : 91 km2
+Forêt du Haut-Vallespir (Pyrénées-Orientales) : 100 km2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des principales forêts françaises au niveau national</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Métropole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Superficie de 40 à 100 km2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Forêt de Mormal (Nord) : 91 km2
 Forêt du Sidobre (Tarn) : 88 km².
 Forêt de Bonnevaux (Isère) : 85 km2
 Forêt de Paimpont (Ille-et-Vilaine) : 80 km2
 Forêt de la Coubre (Charente-Maritime) : 79 km2, domaniale.
 Forêt de Fontfroide (Aude) : 77 km².
-Forêt des Bertranges (Nièvre) : 76 km2[3]
+Forêt des Bertranges (Nièvre) : 76 km2
 Forêt de Moulière (Vienne) : 68 km2, en partie domaniale.
 Forêt de Bercé (Sarthe) : 54 km2
 Forêt de Vierzon (Cher) : 53 km2 (domaniale)
@@ -591,57 +723,61 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des principales forêts françaises par régions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Allier
@@ -687,31 +823,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forêt d'Arcy
@@ -745,31 +883,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Bretagne</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forêt de Paimpont (80 km2).
@@ -798,31 +938,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Centre-Val de Loire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forêt d'Amboise
@@ -837,7 +979,7 @@
 Forêt de Chinon (en partie domaniale).
 Forêt du Choussy.
 Forêt de Dreux (33 km²), en partie domaniale.
-Forêt de Gastines, célébrée par Ronsard[4].
+Forêt de Gastines, célébrée par Ronsard.
 Forêt d'Ivoy.
 Forêt de Lamotte-Beuvron (20 km2), en partie domaniale.
 Forêt de Loches.
@@ -857,31 +999,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Corse</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forêt d'Aïtone.
@@ -901,31 +1045,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Grand Est</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forêt de la Hardt ou de la Harth (130 km2, en partie domaniale).
@@ -977,102 +1123,108 @@
 Forêt de Sommedieue.
 Forêt de Spincourt.
 Forêt de Verdun (95 km2, en partie domaniale).
-Forêt de Woëvre (15,4 km2 de forêt domaniale[5]).
+Forêt de Woëvre (15,4 km2 de forêt domaniale).
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Guadeloupe</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>650 km2 (390 km2 de forêt domaniale).
 Forêt domaniale du Littoral.</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Guyane</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Forêt amazonienne (74 500 km2, principalement domaniale).</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Hauts-de-France</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nord
 Forêt domaniale de l'Abbé-Val-Joly (1 797 ha 76 a 44 ca).
-Forêt domaniale de Bois-l'Évêque (184 ha 92 a 14 ca[6])
+Forêt domaniale de Bois-l'Évêque (184 ha 92 a 14 ca)
 Forêt de Bon-Secours (478 ha 19 a 8 ca).
 Forêt domaniale de Cerfontaine (21 ha 72 a 20 ca).
 Forêt domaniale de Flines-les-Mortagne (244 ha 13 a 39 ca).
@@ -1130,31 +1282,33 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Île-de-France</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bois de Boulogne (8,46 km2).
@@ -1219,31 +1373,33 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Martinique</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>403 km2 (153 km2 de forêt domaniale).
 Forêt départementalo-domaniale des Pitons du Carbet.
@@ -1253,57 +1409,61 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Normandie</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Charente
@@ -1358,38 +1518,40 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Occitanie</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aude
 Forêt de Fontfroide (77 km²).
 Forêt des Fanges (11,8 km²), en partie domaniale.
 Hérault
-Bois de Fontanilles[7].
+Bois de Fontanilles.
 Lozère
 Forêt de Mercoire (110 km²).
 Forêt du Mont-Aigoual (150 km²), en partie domaniale (aussi dans le Gard).
@@ -1423,31 +1585,33 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Pays de la Loire</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bois des Vallons[réf. nécessaire].
@@ -1455,27 +1619,27 @@
 Bois de Couziers.
 Loire-Atlantique
 Forêt d'Ancenis.
-Forêt de la Bretesche[8] (7,5 km²) (commune de Missillac), aussi appelée
-Forêt de La Roche-Bernard[9]
+Forêt de la Bretesche (7,5 km²) (commune de Missillac), aussi appelée
+Forêt de La Roche-Bernard
 Forêt du Gâvre (45 km2, domaniale.
 Forêt de la Groulaie (commune de Blain).
 Forêt de Machecoul.
 Forêt de Juigné (aussi en Maine-et-Loire).
 Forêt de Princé (Chéméré/Chaumes-en-Retz).
-Forêt de Teillay[10] (23 km²) (Ruffigné, Rougé, ainsi que Teillay en Ille-et-Vilaine).
+Forêt de Teillay (23 km²) (Ruffigné, Rougé, ainsi que Teillay en Ille-et-Vilaine).
 Forêt de Touffou (Vertou et Le Bignon).
 Forêt de Vioreau (Joué-sur-Erdre)
 Maine-et-Loire
 Forêt de Fontevraud avec une extension dans le département de la Vienne (Nouvelle-Aquitaine) :
-Bois de Roiffé[11].
-Forêt de la Foucaudière[12] (5 km²) (Liré et trois autres communes).
+Bois de Roiffé.
+Forêt de la Foucaudière (5 km²) (Liré et trois autres communes).
 Forêt de Leppo.
 Forêt de Longuenée.
 Forêt de Milly, à l'ouest de Saumur.
 Forêt de Nuaillé.
 Forêt d'Ombrée (17 km2).
 Forêt de Saumur.
-Forêt de Vezins[13] (25 km²).
+Forêt de Vezins (25 km²).
 Mayenne
 Bois d'Hermet.
 Bois de Misedon (aussi en Ille-et-Vilaine)
@@ -1501,31 +1665,33 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forêt des cèdres du Luberon.
@@ -1541,31 +1707,33 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_forêts_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_for%C3%AAts_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>La Réunion</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">2 512 km2 (989 km2 de forêt domaniale)
 Forêt de Bébour.
